--- a/TASK ONE.xlsx
+++ b/TASK ONE.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jesus\Documents\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0D5C6AFA-2560-4880-9299-6D4D68025BE2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{270FBF4F-5BC3-4D97-8D48-74B6E5C2BB9B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11760" xr2:uid="{5ED1BA41-D6BA-4197-AB0B-B1261FC5F4A1}"/>
   </bookViews>
@@ -424,116 +424,11 @@
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="20">
+  <dxfs count="15">
     <dxf>
       <fill>
         <patternFill>
-          <bgColor rgb="FF00B050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF00B050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF00B050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC00000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF00B050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF00B050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF00B050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC00000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF00B050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC00000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF00B050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF00B050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC00000"/>
+          <bgColor rgb="FFFFFF00"/>
         </patternFill>
       </fill>
     </dxf>
@@ -541,6 +436,20 @@
       <fill>
         <patternFill>
           <bgColor theme="9" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF00"/>
         </patternFill>
       </fill>
     </dxf>
@@ -562,6 +471,62 @@
       <fill>
         <patternFill>
           <bgColor theme="9" tint="-0.24994659260841701"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="8" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="-0.24994659260841701"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="8" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="-0.24994659260841701"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF00B050"/>
         </patternFill>
       </fill>
     </dxf>
@@ -878,9 +843,7 @@
   <sheetPr filterMode="1"/>
   <dimension ref="A1:F21"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="H8" sqref="H8"/>
-    </sheetView>
+    <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -1263,15 +1226,7 @@
   </autoFilter>
   <phoneticPr fontId="3" type="noConversion"/>
   <conditionalFormatting sqref="D2:D1048576">
-    <cfRule type="cellIs" dxfId="19" priority="2" operator="greaterThan">
-      <formula>10000</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="18" priority="3" operator="greaterThan">
-      <formula>10000</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D2:D1048576">
-    <cfRule type="cellIs" dxfId="17" priority="1" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="3" priority="1" operator="greaterThan">
       <formula>10000</formula>
     </cfRule>
   </conditionalFormatting>
@@ -1285,7 +1240,7 @@
   <dimension ref="A1:F21"/>
   <sheetViews>
     <sheetView zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="F2" sqref="F2"/>
+      <selection activeCell="I12" sqref="I12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1719,7 +1674,10 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="A1:F21">
-    <cfRule type="duplicateValues" dxfId="16" priority="1"/>
+    <cfRule type="duplicateValues" dxfId="1" priority="2"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A1:XFD1048576">
+    <cfRule type="duplicateValues" dxfId="0" priority="1"/>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
@@ -2103,8 +2061,8 @@
   </sheetData>
   <autoFilter ref="B1:B21" xr:uid="{81CE7FC1-1509-43BB-A5B2-606F7F99530E}"/>
   <conditionalFormatting sqref="D1:D1048576">
-    <cfRule type="top10" dxfId="2" priority="2" rank="1"/>
-    <cfRule type="top10" dxfId="1" priority="1" bottom="1" rank="1"/>
+    <cfRule type="top10" dxfId="14" priority="2" rank="1"/>
+    <cfRule type="top10" dxfId="13" priority="1" bottom="1" rank="1"/>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
